--- a/data/xlsx/正确率-线代2024.xlsx
+++ b/data/xlsx/正确率-线代2024.xlsx
@@ -513,7 +513,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>34/46=94.4%</t>
+          <t>34/36=94.4%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">

--- a/data/xlsx/正确率-线代2024.xlsx
+++ b/data/xlsx/正确率-线代2024.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,7 +488,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>复习全书基础篇</t>
+          <t>复习全书基础</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -540,7 +540,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1800基础篇</t>
+          <t>1800基础</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -644,7 +644,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>张宇基础篇</t>
+          <t>张宇基础</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -690,6 +690,58 @@
       <c r="J5" t="inlineStr">
         <is>
           <t>24/25=96%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>张宇强化</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>一刷</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>12.31-1.3</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>77/99=77.8%</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>14/17=82.4%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>22/29=75.9%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>9/9=-100%</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>6/10=60%</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>14/19=73.7%</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>12/15=80%</t>
         </is>
       </c>
     </row>

--- a/data/xlsx/正确率-线代2024.xlsx
+++ b/data/xlsx/正确率-线代2024.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -745,6 +745,214 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>复习全书提高</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>一刷</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1.26-2.4</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>880</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>一刷</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1.26-2.7</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>余炳森1000基础</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>一刷</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2.17-2.18</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>87/95=91.58%</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>7/8=87.5%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>19/21=90.5%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>19/19=100%</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>10/11=90.9%</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>21/22=95.5%</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>11/14=78.6%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>余炳森1000强化</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>一刷</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2.26-2.27</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>130/156=83.3%</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>9/11=81.8%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>28/33=84.8%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>30/33=90.9%</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>13/18=72.2%</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>32/40=80%</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>18/21=85.7%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/正确率-线代2024.xlsx
+++ b/data/xlsx/正确率-线代2024.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -953,6 +953,58 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>张宇基础</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>二刷</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3.13-3.16</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>160/171=93.6%</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>23/24=95.8%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>33/35=94.3%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>23/26=88.5%</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>25/27=92.6%</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>31/34=91.2%</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>25/25=100%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/正确率-线代2024.xlsx
+++ b/data/xlsx/正确率-线代2024.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -607,37 +607,37 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>175/234=74.8%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>25/32=78.1%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40/56=71.4%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>30/37=81.1%</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>36/42=85.7%</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22/34=64.7%</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22/33=66.7%</t>
         </is>
       </c>
     </row>
@@ -1002,6 +1002,58 @@
       <c r="J11" t="inlineStr">
         <is>
           <t>25/25=100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>杨超139强化</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>二刷</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>5.12-5.15</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>216/234=92.3%</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>30/32=93.8%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>54/56=96.3%</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>32/37=86.5%</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>41/42=97.6%</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>31/34=91.2%</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>28/33=84.8%</t>
         </is>
       </c>
     </row>
